--- a/results/pvalue_OFFSIDES_all_DGI_AUROCperdrug.xlsx
+++ b/results/pvalue_OFFSIDES_all_DGI_AUROCperdrug.xlsx
@@ -626,22 +626,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>13.042</t>
+          <t>15.554</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>12.95</t>
+          <t>15.391</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>13.094</t>
+          <t>15.549</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>13.095</t>
+          <t>15.707</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -683,7 +683,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>11.163</t>
+          <t>11.724</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
